--- a/models/model_training/PhishingUrlData/Mock_Data_14_08_2025.xlsx
+++ b/models/model_training/PhishingUrlData/Mock_Data_14_08_2025.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Active_Domains" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Active_Domains" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="0.0001"/>
@@ -380,7 +380,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,88 +391,126 @@
     <row r="1">
       <c r="A1" s="8" t="inlineStr">
         <is>
-          <t>S. No</t>
+          <t>raw_value</t>
         </is>
       </c>
       <c r="B1" s="8" t="inlineStr">
         <is>
-          <t>Identified Phishing/Suspected Domain Name</t>
+          <t>host</t>
         </is>
       </c>
       <c r="C1" s="8" t="inlineStr">
         <is>
-          <t>Critical Sector Entity Name</t>
+          <t>active</t>
         </is>
       </c>
       <c r="D1" s="8" t="inlineStr">
         <is>
-          <t>Phishing/Suspected Domains (i.e. Class Label)</t>
+          <t>phishing_score</t>
         </is>
       </c>
       <c r="E1" s="8" t="inlineStr">
         <is>
-          <t>_checked_normalized</t>
+          <t>phishing_indicators</t>
         </is>
       </c>
       <c r="F1" s="8" t="inlineStr">
         <is>
-          <t>_dns_resolved</t>
+          <t>verified_phishing</t>
         </is>
       </c>
       <c r="G1" s="8" t="inlineStr">
         <is>
-          <t>_dns_addresses</t>
+          <t>content_hash</t>
         </is>
       </c>
       <c r="H1" s="8" t="inlineStr">
         <is>
-          <t>_http_active</t>
+          <t>final_url</t>
         </is>
       </c>
       <c r="I1" s="8" t="inlineStr">
         <is>
-          <t>_http_details</t>
+          <t>dns_resolved</t>
+        </is>
+      </c>
+      <c r="J1" s="8" t="inlineStr">
+        <is>
+          <t>http_active</t>
+        </is>
+      </c>
+      <c r="K1" s="8" t="inlineStr">
+        <is>
+          <t>http_status</t>
+        </is>
+      </c>
+      <c r="L1" s="8" t="inlineStr">
+        <is>
+          <t>ip_addresses</t>
+        </is>
+      </c>
+      <c r="M1" s="8" t="inlineStr">
+        <is>
+          <t>ssl_valid</t>
+        </is>
+      </c>
+      <c r="N1" s="8" t="inlineStr">
+        <is>
+          <t>filename</t>
+        </is>
+      </c>
+      <c r="O1" s="8" t="inlineStr">
+        <is>
+          <t>check_timestamp</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ww38.feda.bobibank.com</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ww38.feda.bobibank.com</t>
+        </is>
+      </c>
+      <c r="C2" t="b">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ww38.feda.bobibank.com</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Bank of Baroda</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Phishing</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>ww38.feda.bobibank.com</t>
-        </is>
-      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="b">
         <v>1</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>76.223.26.96, 13.248.148.254</t>
-        </is>
-      </c>
-      <c r="H2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>{'final_url': 'https://ww38.feda.bobibank.com', 'status': 200, 'tried': 'https://ww38.feda.bobibank.com'}</t>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>13.248.148.254,76.223.26.96</t>
+        </is>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Mock_Data_14_08_2025.xlsx</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>2025-10-04T20:52:27.495289</t>
         </is>
       </c>
     </row>
